--- a/doc/10.31.2013 Meeting/Result.xlsx
+++ b/doc/10.31.2013 Meeting/Result.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Train2+3_enrich" sheetId="1" r:id="rId1"/>
     <sheet name="Dis" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CM" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dis!$A$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="37">
   <si>
     <t>Precision</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t xml:space="preserve">3way_actngram_allmetrics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">train1a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">train2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">train3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
   </si>
 </sst>
 </file>
@@ -726,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection sqref="A1:O39"/>
     </sheetView>
   </sheetViews>
@@ -2388,12 +2403,175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>10085</v>
+      </c>
+      <c r="C2">
+        <v>10857</v>
+      </c>
+      <c r="D2">
+        <v>13264</v>
+      </c>
+      <c r="E2">
+        <v>4754</v>
+      </c>
+      <c r="F2">
+        <v>14860</v>
+      </c>
+      <c r="G2">
+        <v>9345</v>
+      </c>
+      <c r="H2">
+        <v>8639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>6622</v>
+      </c>
+      <c r="C3">
+        <v>7440</v>
+      </c>
+      <c r="D3">
+        <v>9452</v>
+      </c>
+      <c r="E3">
+        <v>3777</v>
+      </c>
+      <c r="F3">
+        <v>11607</v>
+      </c>
+      <c r="G3">
+        <v>6132</v>
+      </c>
+      <c r="H3">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2014</v>
+      </c>
+      <c r="C4">
+        <v>2085</v>
+      </c>
+      <c r="D4">
+        <v>1381</v>
+      </c>
+      <c r="E4">
+        <v>316</v>
+      </c>
+      <c r="F4">
+        <v>160</v>
+      </c>
+      <c r="G4">
+        <v>1507</v>
+      </c>
+      <c r="H4">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1449</v>
+      </c>
+      <c r="C5">
+        <v>1332</v>
+      </c>
+      <c r="D5">
+        <v>2431</v>
+      </c>
+      <c r="E5">
+        <v>661</v>
+      </c>
+      <c r="F5">
+        <v>3093</v>
+      </c>
+      <c r="G5">
+        <v>1706</v>
+      </c>
+      <c r="H5">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>B2-B4-B5</f>
+        <v>6622</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:H6" si="0">C2-C4-C5</f>
+        <v>7440</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9452</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3777</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>11607</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6132</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>6008</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/10.31.2013 Meeting/Result.xlsx
+++ b/doc/10.31.2013 Meeting/Result.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Train2+3_enrich" sheetId="1" r:id="rId1"/>
     <sheet name="Dis" sheetId="2" r:id="rId2"/>
     <sheet name="CM" sheetId="3" r:id="rId3"/>
+    <sheet name="New" sheetId="4" r:id="rId4"/>
+    <sheet name="DSTC2_baseline" sheetId="5" r:id="rId5"/>
+    <sheet name="slot values" sheetId="6" r:id="rId6"/>
+    <sheet name="Combination" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dis!$A$1:$G$19</definedName>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="80">
   <si>
     <t>Precision</t>
   </si>
@@ -130,12 +134,144 @@
   </si>
   <si>
     <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>enrich3</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>voting</t>
+  </si>
+  <si>
+    <t>self-training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3way_enrich_voting_allmetrics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint_Goals_accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requested_accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method_accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint_Goals_l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requested_l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method_l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dstc2_train </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dstc2_dev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline_focus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWUbaseline </t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pricerange</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Requested slots</t>
+  </si>
+  <si>
+    <t>number of values</t>
+  </si>
+  <si>
+    <t>value examples</t>
+  </si>
+  <si>
+    <t>addr,area,food,phone,pricerange,postcode,signature,name</t>
+  </si>
+  <si>
+    <t>none,byconstraints,byname,finished,byalternatives</t>
+  </si>
+  <si>
+    <t>catalan,chinese,christmas,corsica,creative,crossover,cuban</t>
+  </si>
+  <si>
+    <t>cheap,moderate,expensive</t>
+  </si>
+  <si>
+    <t>ali baba,anatolia,ask,backstreet bistro,bangkok city,bedouin</t>
+  </si>
+  <si>
+    <t>centre,north,west,south,east</t>
+  </si>
+  <si>
+    <t>data set</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>size (calls)</t>
+  </si>
+  <si>
+    <t>(DM1+DM2)*(SR1+SR2)</t>
+  </si>
+  <si>
+    <t>DM3*(SR1+SR2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -212,11 +348,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,6 +425,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:O39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,8 +2603,307 @@
         <v>0.83040000000000003</v>
       </c>
     </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.9294</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9.98E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.94650000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.91320000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.8841</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.1646</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.88529999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.2213</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.86919999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.82840000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.5675</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.61160000000000003</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.65029999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.1293</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.92669999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.88839999999999997</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.1578</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.9123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.54379999999999995</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.70189999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.7359</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G79">
+  <autoFilter ref="A1:G78">
     <sortState ref="A2:G65">
       <sortCondition ref="A1:A65"/>
     </sortState>
@@ -2405,7 +2922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2574,4 +3091,613 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.873</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.873</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.822129</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.81013109999999999</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.1504665</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.31733060000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.79893239999999999</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.96085379999999998</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.15462870000000001</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.3621605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.7153003</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.85689820000000005</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.47137980000000002</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.15670970000000001</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.22425100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.83121500000000004</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.63186900000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.1743412</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.26527020000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.88635779999999997</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.45122269999999998</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.14023430000000001</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.1693413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.86070159999999996</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.60135640000000001</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.16429659999999999</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.21714169999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1">
+        <v>113</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1612</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1">
+        <v>506</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/10.31.2013 Meeting/Result.xlsx
+++ b/doc/10.31.2013 Meeting/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Train2+3_enrich" sheetId="1" r:id="rId1"/>
@@ -426,6 +426,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,9 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3307,7 +3307,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,22 +3353,22 @@
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="10">
         <v>0.58228849999999999</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="10">
         <v>0.90938560000000002</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="10">
         <v>0.822129</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="10">
         <v>0.81013109999999999</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="10">
         <v>0.1504665</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="10">
         <v>0.31733060000000002</v>
       </c>
     </row>
@@ -3379,32 +3379,32 @@
       <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>0.50104280000000001</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="11">
         <v>0.90299309999999999</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>0.79893239999999999</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="10">
         <v>0.96085379999999998</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="11">
         <v>0.15462870000000001</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="10">
         <v>0.3621605</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3413,22 +3413,22 @@
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>0.7153003</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>0.90573939999999997</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>0.85689820000000005</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>0.47137980000000002</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>0.15670970000000001</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>0.22425100000000001</v>
       </c>
     </row>
@@ -3439,32 +3439,32 @@
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>0.61209590000000003</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>0.89361699999999999</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>0.83121500000000004</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>0.63186900000000001</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>0.1743412</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>0.26527020000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3473,22 +3473,22 @@
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>0.73195969999999999</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <v>0.91654290000000005</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>0.88635779999999997</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>0.45122269999999998</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="12">
         <v>0.14023430000000001</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <v>0.1693413</v>
       </c>
     </row>
@@ -3499,22 +3499,22 @@
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>0.62304479999999995</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>0.90263249999999995</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <v>0.86070159999999996</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <v>0.60135640000000001</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <v>0.16429659999999999</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <v>0.21714169999999999</v>
       </c>
     </row>
@@ -3541,10 +3541,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3567,7 +3567,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
@@ -3591,7 +3591,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
@@ -3603,10 +3603,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -3615,10 +3615,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1">
         <v>8</v>
       </c>
@@ -3653,7 +3653,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
